--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1603,7 +1603,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>348</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1401,7 +1401,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -650,7 +650,7 @@
         <x:v>1131</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>354</x:v>
@@ -673,13 +673,13 @@
         <x:v>2248</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4130</x:v>
+        <x:v>4128</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3868</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1500</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>8</x:v>
@@ -884,7 +884,7 @@
         <x:v>1604</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1256</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>274</x:v>
@@ -1251,7 +1251,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1563,7 +1563,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2248</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4128</x:v>
+        <x:v>4129</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3868</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2248</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4129</x:v>
+        <x:v>4130</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3868</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -676,10 +676,10 @@
         <x:v>4130</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3868</x:v>
+        <x:v>3869</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>8</x:v>
@@ -855,7 +855,7 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>470</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -653,7 +653,7 @@
         <x:v>991</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>2</x:v>
@@ -679,7 +679,7 @@
         <x:v>3869</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1500</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>8</x:v>
@@ -803,7 +803,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>189</x:v>
@@ -1277,7 +1277,7 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>1</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -907,7 +907,7 @@
         <x:v>2864</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4017</x:v>
+        <x:v>4018</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3375</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -881,7 +881,7 @@
         <x:v>1203</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1604</x:v>
+        <x:v>1605</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1257</x:v>
@@ -907,13 +907,13 @@
         <x:v>2864</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4018</x:v>
+        <x:v>4017</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3375</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1043,7 +1043,7 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2248</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4130</x:v>
+        <x:v>4129</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3869</x:v>
@@ -1034,7 +1034,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>580</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -783,7 +783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -878,7 +878,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1203</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1605</x:v>
@@ -904,7 +904,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2864</x:v>
+        <x:v>2863</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>4017</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,10 +673,10 @@
         <x:v>2248</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4129</x:v>
+        <x:v>4130</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3869</x:v>
+        <x:v>3870</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1501</x:v>
@@ -783,7 +783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -670,10 +670,10 @@
         <x:v>1156</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2251</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4130</x:v>
+        <x:v>4132</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3870</x:v>
@@ -878,7 +878,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1202</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1605</x:v>
@@ -1404,7 +1404,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,10 +904,10 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2863</x:v>
+        <x:v>2862</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4017</x:v>
+        <x:v>4015</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3375</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -878,7 +878,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1605</x:v>
@@ -1034,7 +1034,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>580</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2251</x:v>
@@ -676,7 +676,7 @@
         <x:v>4132</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3870</x:v>
+        <x:v>3871</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1501</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -910,7 +910,7 @@
         <x:v>4015</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3375</x:v>
+        <x:v>3374</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1092</x:v>
@@ -1216,7 +1216,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>6</x:v>
@@ -1242,7 +1242,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>26</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1277,7 +1277,7 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>1</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>232</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2251</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4132</x:v>
+        <x:v>4133</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3871</x:v>
@@ -858,7 +858,7 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>150</x:v>
@@ -881,13 +881,13 @@
         <x:v>1199</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1605</x:v>
+        <x:v>1604</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1257</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2862</x:v>
+        <x:v>2861</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4015</x:v>
+        <x:v>4010</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3374</x:v>
+        <x:v>3370</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1092</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>497</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2432</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>917</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>433</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>232</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -676,7 +676,7 @@
         <x:v>4133</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3871</x:v>
+        <x:v>3872</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1501</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,7 +904,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2861</x:v>
+        <x:v>2860</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>4010</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>1802</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>672</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>11</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2251</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4133</x:v>
+        <x:v>4134</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3872</x:v>
@@ -907,10 +907,10 @@
         <x:v>2860</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4010</x:v>
+        <x:v>4011</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3370</x:v>
+        <x:v>3369</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1092</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -803,7 +803,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>189</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,13 +673,13 @@
         <x:v>2251</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4134</x:v>
+        <x:v>4133</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3872</x:v>
+        <x:v>3871</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>8</x:v>
@@ -722,7 +722,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>130</x:v>
@@ -748,16 +748,16 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>466</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -878,16 +878,16 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1199</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1604</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2860</x:v>
+        <x:v>2844</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>4011</x:v>
+        <x:v>3984</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3369</x:v>
+        <x:v>3355</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>497</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2432</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>917</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>599</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>92</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>13</x:v>
@@ -1658,7 +1658,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>707</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1560,7 +1560,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>153</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -878,7 +878,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1597</x:v>
@@ -904,7 +904,7 @@
         <x:v>607</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2844</x:v>
+        <x:v>2843</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3984</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -910,7 +910,7 @@
         <x:v>3984</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3355</x:v>
+        <x:v>3354</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1086</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -875,7 +875,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1193</x:v>
@@ -901,13 +901,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2843</x:v>
+        <x:v>2842</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3984</x:v>
+        <x:v>3981</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3354</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -878,7 +878,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1597</x:v>
@@ -910,7 +910,7 @@
         <x:v>3981</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3354</x:v>
+        <x:v>3353</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1086</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -757,7 +757,7 @@
         <x:v>466</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -878,7 +878,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1597</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>431</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -881,7 +881,7 @@
         <x:v>1191</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1597</x:v>
+        <x:v>1596</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1252</x:v>
@@ -907,13 +907,13 @@
         <x:v>2842</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3981</x:v>
+        <x:v>3980</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3353</x:v>
+        <x:v>3351</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,10 +904,10 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2842</x:v>
+        <x:v>2839</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3980</x:v>
+        <x:v>3978</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3351</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>336</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>68</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>218</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -884,7 +884,7 @@
         <x:v>1596</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>272</x:v>
@@ -904,7 +904,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2839</x:v>
+        <x:v>2838</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3978</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,10 +673,10 @@
         <x:v>2251</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4133</x:v>
+        <x:v>4134</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3871</x:v>
+        <x:v>3872</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1502</x:v>
@@ -904,7 +904,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2838</x:v>
+        <x:v>2837</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3978</x:v>
@@ -1658,7 +1658,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>707</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -884,7 +884,7 @@
         <x:v>1596</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>272</x:v>
@@ -913,7 +913,7 @@
         <x:v>3351</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1664,7 +1664,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>232</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2837</x:v>
+        <x:v>2836</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3978</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3351</x:v>
+        <x:v>3350</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1084</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2836</x:v>
+        <x:v>2835</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3978</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3349</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1084</x:v>
@@ -1017,7 +1017,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>1108</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>1802</x:v>
+        <x:v>1801</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>1687</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1348</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2432</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -884,7 +884,7 @@
         <x:v>1596</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>272</x:v>
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2835</x:v>
+        <x:v>2834</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3977</x:v>
+        <x:v>3978</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3349</x:v>
+        <x:v>3348</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1084</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -878,7 +878,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1596</x:v>
@@ -910,7 +910,7 @@
         <x:v>3978</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3348</x:v>
+        <x:v>3347</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1084</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>211</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -644,7 +644,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1131</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -904,16 +904,16 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2834</x:v>
+        <x:v>2833</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3978</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3347</x:v>
+        <x:v>3345</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -647,7 +647,7 @@
         <x:v>805</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>991</x:v>
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2833</x:v>
+        <x:v>2831</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3977</x:v>
+        <x:v>3975</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3345</x:v>
+        <x:v>3344</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1083</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -881,7 +881,7 @@
         <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1596</x:v>
+        <x:v>1594</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1249</x:v>
@@ -907,13 +907,13 @@
         <x:v>2831</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3975</x:v>
+        <x:v>3972</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3344</x:v>
+        <x:v>3343</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1083</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1040,7 +1040,7 @@
         <x:v>578</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>141</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2432</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>917</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1658,7 +1658,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>707</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -881,10 +881,10 @@
         <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1594</x:v>
+        <x:v>1595</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>272</x:v>
@@ -904,13 +904,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2831</x:v>
+        <x:v>2830</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3972</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3343</x:v>
+        <x:v>3342</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1082</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>1801</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>672</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2432</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -641,16 +641,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1130</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>991</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>353</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2251</x:v>
+        <x:v>2256</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4134</x:v>
+        <x:v>4141</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3872</x:v>
+        <x:v>3881</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>8</x:v>
@@ -725,7 +725,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>90</x:v>
@@ -748,7 +748,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>500</x:v>
@@ -803,7 +803,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>189</x:v>
@@ -826,7 +826,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>157</x:v>
@@ -849,16 +849,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>150</x:v>
@@ -878,16 +878,16 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1595</x:v>
+        <x:v>1594</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2830</x:v>
+        <x:v>2832</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3972</x:v>
+        <x:v>3974</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3342</x:v>
+        <x:v>3346</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1034,10 +1034,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>496</x:v>
@@ -1274,10 +1274,10 @@
         <x:v>1801</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>1</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1345</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2432</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>917</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>6</x:v>
@@ -1349,7 +1349,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>173</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>11</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>431</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -907,7 +907,7 @@
         <x:v>2832</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3974</x:v>
+        <x:v>3971</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3346</x:v>
@@ -1043,7 +1043,7 @@
         <x:v>496</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1008,7 +1008,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>337</x:v>
@@ -1034,7 +1034,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>577</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>1108</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>1801</x:v>
+        <x:v>1802</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>1687</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -852,10 +852,10 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>470</x:v>
@@ -910,7 +910,7 @@
         <x:v>3971</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3346</x:v>
+        <x:v>3347</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1081</x:v>
@@ -1349,7 +1349,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>173</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -913,7 +913,7 @@
         <x:v>3347</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1081</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2256</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4141</x:v>
+        <x:v>4142</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3881</x:v>
@@ -878,13 +878,13 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1594</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>274</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>337</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>1802</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>673</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -907,13 +907,13 @@
         <x:v>2832</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3971</x:v>
+        <x:v>3969</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3347</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1080</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>4</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>1802</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1688</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>673</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -907,7 +907,7 @@
         <x:v>2832</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3969</x:v>
+        <x:v>3968</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3347</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -676,7 +676,7 @@
         <x:v>4142</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3881</x:v>
+        <x:v>3880</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1504</x:v>
@@ -901,7 +901,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>2832</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>232</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1138,7 +1138,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>56</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>1802</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>673</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1268,7 +1268,7 @@
         <x:v>439</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1108</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>1802</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2432</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -1268,7 +1268,7 @@
         <x:v>439</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1109</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>1802</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -673,7 +673,7 @@
         <x:v>2256</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4142</x:v>
+        <x:v>4143</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3880</x:v>
@@ -884,7 +884,7 @@
         <x:v>1594</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>274</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -241,10 +241,10 @@
     <x:t>608</x:t>
   </x:si>
   <x:si>
-    <x:t>2833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3965</x:t>
+    <x:t>2830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3963</x:t>
   </x:si>
   <x:si>
     <x:t>3344</x:t>
@@ -412,7 +412,7 @@
     <x:t>34</x:t>
   </x:si>
   <x:si>
-    <x:t>236</x:t>
+    <x:t>237</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -103,10 +103,10 @@
     <x:t>637</x:t>
   </x:si>
   <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1133</x:t>
+    <x:t>809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1134</x:t>
   </x:si>
   <x:si>
     <x:t>993</x:t>
@@ -118,13 +118,13 @@
     <x:t>1160</x:t>
   </x:si>
   <x:si>
-    <x:t>2256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3880</x:t>
+    <x:t>2257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3881</x:t>
   </x:si>
   <x:si>
     <x:t>1504</x:t>
@@ -160,7 +160,7 @@
     <x:t>500</x:t>
   </x:si>
   <x:si>
-    <x:t>466</x:t>
+    <x:t>467</x:t>
   </x:si>
   <x:si>
     <x:t>112</x:t>
@@ -184,24 +184,27 @@
     <x:t>76</x:t>
   </x:si>
   <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
     <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
     <x:t>103</x:t>
   </x:si>
   <x:si>
@@ -244,10 +247,10 @@
     <x:t>2830</x:t>
   </x:si>
   <x:si>
-    <x:t>3963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3344</x:t>
+    <x:t>3964</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3343</x:t>
   </x:si>
   <x:si>
     <x:t>1079</x:t>
@@ -277,7 +280,7 @@
     <x:t>337</x:t>
   </x:si>
   <x:si>
-    <x:t>211</x:t>
+    <x:t>212</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
@@ -289,10 +292,10 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>496</x:t>
+    <x:t>578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>497</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
@@ -478,7 +481,7 @@
     <x:t>707</x:t>
   </x:si>
   <x:si>
-    <x:t>485</x:t>
+    <x:t>486</x:t>
   </x:si>
   <x:si>
     <x:t>232</x:t>
@@ -1198,10 +1201,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>51</x:v>
@@ -1218,19 +1221,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1238,25 +1241,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1264,25 +1267,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>11</x:v>
@@ -1290,16 +1293,16 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>20</x:v>
@@ -1316,13 +1319,13 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>18</x:v>
@@ -1342,7 +1345,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1368,25 +1371,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1394,25 +1397,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1446,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1472,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1487,7 +1490,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>20</x:v>
@@ -1498,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1507,13 +1510,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
         <x:v>21</x:v>
@@ -1524,7 +1527,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1550,7 +1553,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1562,10 +1565,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>13</x:v>
@@ -1576,7 +1579,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1585,7 +1588,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>14</x:v>
@@ -1602,7 +1605,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1611,13 +1614,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>14</x:v>
@@ -1628,25 +1631,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>39</x:v>
@@ -1654,25 +1657,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>16</x:v>
@@ -1680,7 +1683,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1689,13 +1692,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>14</x:v>
@@ -1706,25 +1709,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1732,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1741,7 +1744,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
         <x:v>11</x:v>
@@ -1758,22 +1761,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F35" s="1" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="F35" s="1" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>22</x:v>
@@ -1784,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
@@ -1810,7 +1813,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>15</x:v>
@@ -1819,16 +1822,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1836,22 +1839,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
         <x:v>39</x:v>
@@ -1862,22 +1865,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>21</x:v>
@@ -1888,7 +1891,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
@@ -1897,7 +1900,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>26</x:v>
@@ -1914,25 +1917,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G41" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="E41" s="1" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="G41" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1940,19 +1943,19 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
         <x:v>52</x:v>
@@ -1966,25 +1969,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>20</x:v>
@@ -1992,13 +1995,13 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
         <x:v>60</x:v>
@@ -2007,7 +2010,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>23</x:v>
@@ -2018,25 +2021,25 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -229,7 +229,7 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1191</x:t>
+    <x:t>1190</x:t>
   </x:si>
   <x:si>
     <x:t>1593</x:t>
@@ -274,7 +274,7 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
+    <x:t>224</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -244,7 +244,7 @@
     <x:t>608</x:t>
   </x:si>
   <x:si>
-    <x:t>2830</x:t>
+    <x:t>2828</x:t>
   </x:si>
   <x:si>
     <x:t>3964</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -118,7 +118,7 @@
     <x:t>1160</x:t>
   </x:si>
   <x:si>
-    <x:t>2257</x:t>
+    <x:t>2258</x:t>
   </x:si>
   <x:si>
     <x:t>4144</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -235,7 +235,7 @@
     <x:t>1593</x:t>
   </x:si>
   <x:si>
-    <x:t>1250</x:t>
+    <x:t>1249</x:t>
   </x:si>
   <x:si>
     <x:t>274</x:t>
@@ -250,7 +250,7 @@
     <x:t>3964</x:t>
   </x:si>
   <x:si>
-    <x:t>3343</x:t>
+    <x:t>3342</x:t>
   </x:si>
   <x:si>
     <x:t>1079</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -433,7 +433,7 @@
     <x:t>153</x:t>
   </x:si>
   <x:si>
-    <x:t>207</x:t>
+    <x:t>208</x:t>
   </x:si>
   <x:si>
     <x:t>255</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -250,7 +250,7 @@
     <x:t>3964</x:t>
   </x:si>
   <x:si>
-    <x:t>3342</x:t>
+    <x:t>3341</x:t>
   </x:si>
   <x:si>
     <x:t>1079</x:t>
@@ -481,7 +481,7 @@
     <x:t>707</x:t>
   </x:si>
   <x:si>
-    <x:t>486</x:t>
+    <x:t>487</x:t>
   </x:si>
   <x:si>
     <x:t>232</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -241,13 +241,13 @@
     <x:t>274</x:t>
   </x:si>
   <x:si>
-    <x:t>608</x:t>
+    <x:t>607</x:t>
   </x:si>
   <x:si>
     <x:t>2828</x:t>
   </x:si>
   <x:si>
-    <x:t>3964</x:t>
+    <x:t>3963</x:t>
   </x:si>
   <x:si>
     <x:t>3341</x:t>
@@ -454,7 +454,7 @@
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>348</x:t>
+    <x:t>349</x:t>
   </x:si>
   <x:si>
     <x:t>599</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -137,9 +137,6 @@
   </x:si>
   <x:si>
     <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
   </x:si>
   <x:si>
     <x:t>72</x:t>
@@ -1091,16 +1088,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
         <x:v>17</x:v>
@@ -1117,19 +1114,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F10" s="1" t="s">
+      <x:c r="G10" s="1" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
@@ -1137,7 +1134,7 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
@@ -1146,16 +1143,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1163,7 +1160,7 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>15</x:v>
@@ -1172,16 +1169,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="F12" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1189,25 +1186,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>39</x:v>
@@ -1215,25 +1212,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1241,25 +1238,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1267,25 +1264,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>11</x:v>
@@ -1293,16 +1290,16 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>20</x:v>
@@ -1319,13 +1316,13 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>18</x:v>
@@ -1345,7 +1342,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1371,25 +1368,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1397,25 +1394,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1423,7 +1420,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1449,7 +1446,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1475,7 +1472,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1490,7 +1487,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>20</x:v>
@@ -1501,7 +1498,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1510,13 +1507,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F25" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
         <x:v>21</x:v>
@@ -1527,7 +1524,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1553,7 +1550,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1565,10 +1562,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="F27" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>13</x:v>
@@ -1579,7 +1576,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1588,7 +1585,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>14</x:v>
@@ -1605,7 +1602,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1614,13 +1611,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>104</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>14</x:v>
@@ -1631,25 +1628,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>39</x:v>
@@ -1657,25 +1654,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>16</x:v>
@@ -1683,7 +1680,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1692,13 +1689,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>119</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>14</x:v>
@@ -1709,25 +1706,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1735,7 +1732,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1744,7 +1741,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
         <x:v>11</x:v>
@@ -1761,22 +1758,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
+      <x:c r="E35" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>22</x:v>
@@ -1787,7 +1784,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
@@ -1813,25 +1810,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C37" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D37" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F37" s="1" t="s">
+      <x:c r="G37" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="G37" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1839,22 +1836,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
         <x:v>39</x:v>
@@ -1865,22 +1862,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D39" s="1" t="s">
+      <x:c r="E39" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="E39" s="1" t="s">
+      <x:c r="F39" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="F39" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>21</x:v>
@@ -1891,7 +1888,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
@@ -1900,7 +1897,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>26</x:v>
@@ -1917,25 +1914,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
+      <x:c r="D41" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
+      <x:c r="E41" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="F41" s="1" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1943,22 +1940,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>18</x:v>
@@ -1969,25 +1966,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>148</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>149</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>20</x:v>
@@ -1995,22 +1992,22 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>23</x:v>
@@ -2021,25 +2018,25 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -244,10 +244,10 @@
     <x:t>2828</x:t>
   </x:si>
   <x:si>
-    <x:t>3963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3341</x:t>
+    <x:t>3961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3340</x:t>
   </x:si>
   <x:si>
     <x:t>1079</x:t>
@@ -289,7 +289,7 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>578</x:t>
+    <x:t>577</x:t>
   </x:si>
   <x:si>
     <x:t>497</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -292,7 +292,7 @@
     <x:t>577</x:t>
   </x:si>
   <x:si>
-    <x:t>497</x:t>
+    <x:t>498</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -235,7 +235,7 @@
     <x:t>1249</x:t>
   </x:si>
   <x:si>
-    <x:t>274</x:t>
+    <x:t>273</x:t>
   </x:si>
   <x:si>
     <x:t>607</x:t>
@@ -244,7 +244,7 @@
     <x:t>2828</x:t>
   </x:si>
   <x:si>
-    <x:t>3961</x:t>
+    <x:t>3960</x:t>
   </x:si>
   <x:si>
     <x:t>3340</x:t>
@@ -295,7 +295,7 @@
     <x:t>498</x:t>
   </x:si>
   <x:si>
-    <x:t>140</x:t>
+    <x:t>141</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -343,7 +343,7 @@
     <x:t>1688</x:t>
   </x:si>
   <x:si>
-    <x:t>673</x:t>
+    <x:t>674</x:t>
   </x:si>
   <x:si>
     <x:t>493</x:t>
@@ -376,9 +376,6 @@
     <x:t>130</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
     <x:t>282</x:t>
   </x:si>
   <x:si>
@@ -433,7 +430,7 @@
     <x:t>208</x:t>
   </x:si>
   <x:si>
-    <x:t>255</x:t>
+    <x:t>254</x:t>
   </x:si>
   <x:si>
     <x:t>246</x:t>
@@ -1715,13 +1712,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>97</x:v>
@@ -1732,7 +1729,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1758,7 +1755,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
@@ -1767,13 +1764,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>22</x:v>
@@ -1784,7 +1781,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
@@ -1810,7 +1807,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>15</x:v>
@@ -1825,10 +1822,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G37" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="G37" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1836,22 +1833,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
         <x:v>39</x:v>
@@ -1862,22 +1859,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D39" s="1" t="s">
+      <x:c r="E39" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E39" s="1" t="s">
+      <x:c r="F39" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="F39" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>21</x:v>
@@ -1888,7 +1885,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
@@ -1914,25 +1911,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
+      <x:c r="D41" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
+      <x:c r="E41" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="F41" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1940,19 +1937,19 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="E42" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
         <x:v>51</x:v>
@@ -1966,25 +1963,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>20</x:v>
@@ -1992,7 +1989,7 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>9</x:v>
@@ -2007,7 +2004,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>23</x:v>
@@ -2018,25 +2015,25 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -127,7 +127,7 @@
     <x:t>3881</x:t>
   </x:si>
   <x:si>
-    <x:t>1504</x:t>
+    <x:t>1503</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -371,9 +371,6 @@
   </x:si>
   <x:si>
     <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
   </x:si>
   <x:si>
     <x:t>282</x:t>
@@ -1709,16 +1706,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>97</x:v>
@@ -1729,7 +1726,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1755,7 +1752,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
@@ -1764,13 +1761,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>22</x:v>
@@ -1781,7 +1778,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
@@ -1807,7 +1804,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>15</x:v>
@@ -1822,10 +1819,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G37" s="1" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="G37" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1833,22 +1830,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
         <x:v>39</x:v>
@@ -1859,22 +1856,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D39" s="1" t="s">
+      <x:c r="E39" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="E39" s="1" t="s">
+      <x:c r="F39" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="F39" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>21</x:v>
@@ -1885,7 +1882,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
@@ -1911,25 +1908,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
+      <x:c r="D41" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
+      <x:c r="E41" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="F41" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>139</x:v>
-      </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1937,19 +1934,19 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="E42" s="1" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
         <x:v>51</x:v>
@@ -1963,25 +1960,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>20</x:v>
@@ -1989,7 +1986,7 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>9</x:v>
@@ -2004,7 +2001,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>23</x:v>
@@ -2015,25 +2012,25 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -232,7 +232,7 @@
     <x:t>1593</x:t>
   </x:si>
   <x:si>
-    <x:t>1249</x:t>
+    <x:t>1248</x:t>
   </x:si>
   <x:si>
     <x:t>273</x:t>
@@ -241,7 +241,7 @@
     <x:t>607</x:t>
   </x:si>
   <x:si>
-    <x:t>2828</x:t>
+    <x:t>2827</x:t>
   </x:si>
   <x:si>
     <x:t>3960</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -121,7 +121,7 @@
     <x:t>2258</x:t>
   </x:si>
   <x:si>
-    <x:t>4144</x:t>
+    <x:t>4143</x:t>
   </x:si>
   <x:si>
     <x:t>3881</x:t>
@@ -199,7 +199,7 @@
     <x:t>118</x:t>
   </x:si>
   <x:si>
-    <x:t>157</x:t>
+    <x:t>156</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -211,7 +211,7 @@
     <x:t>372</x:t>
   </x:si>
   <x:si>
-    <x:t>598</x:t>
+    <x:t>597</x:t>
   </x:si>
   <x:si>
     <x:t>470</x:t>
@@ -244,7 +244,7 @@
     <x:t>2827</x:t>
   </x:si>
   <x:si>
-    <x:t>3960</x:t>
+    <x:t>3959</x:t>
   </x:si>
   <x:si>
     <x:t>3340</x:t>
@@ -472,7 +472,7 @@
     <x:t>707</x:t>
   </x:si>
   <x:si>
-    <x:t>487</x:t>
+    <x:t>486</x:t>
   </x:si>
   <x:si>
     <x:t>232</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -247,7 +247,7 @@
     <x:t>3959</x:t>
   </x:si>
   <x:si>
-    <x:t>3340</x:t>
+    <x:t>3339</x:t>
   </x:si>
   <x:si>
     <x:t>1079</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -244,7 +244,7 @@
     <x:t>2827</x:t>
   </x:si>
   <x:si>
-    <x:t>3959</x:t>
+    <x:t>3958</x:t>
   </x:si>
   <x:si>
     <x:t>3339</x:t>
@@ -289,7 +289,7 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>577</x:t>
+    <x:t>578</x:t>
   </x:si>
   <x:si>
     <x:t>498</x:t>
@@ -337,7 +337,7 @@
     <x:t>1109</x:t>
   </x:si>
   <x:si>
-    <x:t>1803</x:t>
+    <x:t>1804</x:t>
   </x:si>
   <x:si>
     <x:t>1688</x:t>
@@ -448,7 +448,7 @@
     <x:t>349</x:t>
   </x:si>
   <x:si>
-    <x:t>599</x:t>
+    <x:t>600</x:t>
   </x:si>
   <x:si>
     <x:t>430</x:t>
@@ -469,7 +469,7 @@
     <x:t>643</x:t>
   </x:si>
   <x:si>
-    <x:t>707</x:t>
+    <x:t>708</x:t>
   </x:si>
   <x:si>
     <x:t>486</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -244,7 +244,7 @@
     <x:t>2827</x:t>
   </x:si>
   <x:si>
-    <x:t>3958</x:t>
+    <x:t>3957</x:t>
   </x:si>
   <x:si>
     <x:t>3339</x:t>
